--- a/Data/RSF_results.xlsx
+++ b/Data/RSF_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">p_n</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t xml:space="preserve">train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specificity</t>
   </si>
   <si>
     <t xml:space="preserve">TV_P</t>
@@ -370,170 +376,181 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0.301029995663981</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466666666666667</v>
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>0.602059991327962</v>
       </c>
       <c r="B3" t="n">
         <v>0.35</v>
       </c>
       <c r="C3" t="n">
-        <v>0.366666666666667</v>
+        <v>0.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>0.778151250383644</v>
       </c>
       <c r="B4" t="n">
         <v>0.506666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>0.903089986991944</v>
       </c>
       <c r="B5" t="n">
         <v>0.466666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="C6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.911111111111111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4</v>
+        <v>-0.397940008672038</v>
       </c>
       <c r="B7" t="n">
         <v>0.636666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8</v>
+        <v>-0.0969100130080564</v>
       </c>
       <c r="B8" t="n">
         <v>0.65</v>
       </c>
       <c r="C8" t="n">
-        <v>0.553333333333333</v>
+        <v>0.92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.2</v>
+        <v>0.0791812460476248</v>
       </c>
       <c r="B9" t="n">
         <v>0.65</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553333333333333</v>
+        <v>0.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.6</v>
+        <v>0.204119982655925</v>
       </c>
       <c r="B10" t="n">
         <v>0.51</v>
       </c>
       <c r="C10" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.871428571428571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>0.301029995663981</v>
       </c>
       <c r="B11" t="n">
         <v>0.496666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.686666666666667</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.623333333333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.4</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.536666666666667</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.603333333333333</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.463333333333333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.546666666666667</v>
+      <c r="E11" t="n">
+        <v>0.933333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +569,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -560,170 +577,181 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5</v>
+        <v>-0.301029995663981</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466666666666667</v>
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.25</v>
+        <v>-0.602059991327962</v>
       </c>
       <c r="B3" t="n">
         <v>0.35</v>
       </c>
       <c r="C3" t="n">
-        <v>0.366666666666667</v>
+        <v>0.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.166666666666667</v>
+        <v>-0.778151250383644</v>
       </c>
       <c r="B4" t="n">
         <v>0.506666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.125</v>
+        <v>-0.903089986991944</v>
       </c>
       <c r="B5" t="n">
         <v>0.466666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="C6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.911111111111111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5</v>
+        <v>-0.301029995663981</v>
       </c>
       <c r="B7" t="n">
         <v>0.636666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.25</v>
+        <v>-0.602059991327962</v>
       </c>
       <c r="B8" t="n">
         <v>0.65</v>
       </c>
       <c r="C8" t="n">
-        <v>0.553333333333333</v>
+        <v>0.92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.166666666666667</v>
+        <v>-0.778151250383644</v>
       </c>
       <c r="B9" t="n">
         <v>0.65</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553333333333333</v>
+        <v>0.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.125</v>
+        <v>-0.903089986991944</v>
       </c>
       <c r="B10" t="n">
         <v>0.51</v>
       </c>
       <c r="C10" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.871428571428571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="B11" t="n">
         <v>0.496666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.686666666666667</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.623333333333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.536666666666667</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.603333333333333</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.463333333333333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.546666666666667</v>
+        <v>0.94</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.933333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +770,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -750,170 +778,181 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466666666666667</v>
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0.35</v>
       </c>
       <c r="C3" t="n">
-        <v>0.366666666666667</v>
+        <v>0.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>0.506666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0.466666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="C6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.911111111111111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2</v>
+        <v>-0.698970004336019</v>
       </c>
       <c r="B7" t="n">
         <v>0.636666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2</v>
+        <v>-0.698970004336019</v>
       </c>
       <c r="B8" t="n">
         <v>0.65</v>
       </c>
       <c r="C8" t="n">
-        <v>0.553333333333333</v>
+        <v>0.92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2</v>
+        <v>-0.698970004336019</v>
       </c>
       <c r="B9" t="n">
         <v>0.65</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553333333333333</v>
+        <v>0.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2</v>
+        <v>-0.698970004336019</v>
       </c>
       <c r="B10" t="n">
         <v>0.51</v>
       </c>
       <c r="C10" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.871428571428571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2</v>
+        <v>-0.698970004336019</v>
       </c>
       <c r="B11" t="n">
         <v>0.496666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.686666666666667</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.623333333333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.536666666666667</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.603333333333333</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.463333333333333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.546666666666667</v>
+        <v>0.94</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.933333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Data/RSF_results.xlsx
+++ b/Data/RSF_results.xlsx
@@ -385,7 +385,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.301029995663981</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
@@ -402,7 +402,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.602059991327962</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>0.35</v>
@@ -411,15 +411,15 @@
         <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.766666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.778151250383644</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>0.506666666666667</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.903089986991944</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>0.466666666666667</v>
@@ -445,15 +445,15 @@
         <v>0.933333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.857142857142857</v>
+        <v>0.871428571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.583333333333333</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.397940008672038</v>
+        <v>0.4</v>
       </c>
       <c r="B7" t="n">
         <v>0.636666666666667</v>
@@ -479,15 +479,15 @@
         <v>0.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0969100130080564</v>
+        <v>0.8</v>
       </c>
       <c r="B8" t="n">
         <v>0.65</v>
@@ -496,15 +496,15 @@
         <v>0.92</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.933333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0791812460476248</v>
+        <v>1.2</v>
       </c>
       <c r="B9" t="n">
         <v>0.65</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.204119982655925</v>
+        <v>1.6</v>
       </c>
       <c r="B10" t="n">
         <v>0.51</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.301029995663981</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>0.496666666666667</v>
@@ -550,6 +550,91 @@
         <v>0.4</v>
       </c>
       <c r="E11" t="n">
+        <v>0.933333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.686666666666667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.536666666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.733333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.933333333333333</v>
       </c>
     </row>
@@ -586,7 +671,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.301029995663981</v>
+        <v>0.5</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
@@ -603,7 +688,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.602059991327962</v>
+        <v>0.25</v>
       </c>
       <c r="B3" t="n">
         <v>0.35</v>
@@ -612,15 +697,15 @@
         <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.766666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.778151250383644</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="B4" t="n">
         <v>0.506666666666667</v>
@@ -637,7 +722,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.903089986991944</v>
+        <v>0.125</v>
       </c>
       <c r="B5" t="n">
         <v>0.466666666666667</v>
@@ -646,15 +731,15 @@
         <v>0.933333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.857142857142857</v>
+        <v>0.871428571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="B6" t="n">
         <v>0.583333333333333</v>
@@ -671,7 +756,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.301029995663981</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
         <v>0.636666666666667</v>
@@ -680,15 +765,15 @@
         <v>0.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.602059991327962</v>
+        <v>0.25</v>
       </c>
       <c r="B8" t="n">
         <v>0.65</v>
@@ -697,15 +782,15 @@
         <v>0.92</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.933333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.778151250383644</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="B9" t="n">
         <v>0.65</v>
@@ -722,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.903089986991944</v>
+        <v>0.125</v>
       </c>
       <c r="B10" t="n">
         <v>0.51</v>
@@ -739,7 +824,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="B11" t="n">
         <v>0.496666666666667</v>
@@ -751,6 +836,91 @@
         <v>0.4</v>
       </c>
       <c r="E11" t="n">
+        <v>0.933333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.686666666666667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.536666666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.733333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.933333333333333</v>
       </c>
     </row>
@@ -787,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0.26</v>
@@ -804,7 +974,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0.35</v>
@@ -813,15 +983,15 @@
         <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.766666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>0.506666666666667</v>
@@ -838,7 +1008,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0.466666666666667</v>
@@ -847,15 +1017,15 @@
         <v>0.933333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.857142857142857</v>
+        <v>0.871428571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0.583333333333333</v>
@@ -872,7 +1042,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.698970004336019</v>
+        <v>0.2</v>
       </c>
       <c r="B7" t="n">
         <v>0.636666666666667</v>
@@ -881,15 +1051,15 @@
         <v>0.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.698970004336019</v>
+        <v>0.2</v>
       </c>
       <c r="B8" t="n">
         <v>0.65</v>
@@ -898,15 +1068,15 @@
         <v>0.92</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.933333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.698970004336019</v>
+        <v>0.2</v>
       </c>
       <c r="B9" t="n">
         <v>0.65</v>
@@ -923,7 +1093,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.698970004336019</v>
+        <v>0.2</v>
       </c>
       <c r="B10" t="n">
         <v>0.51</v>
@@ -940,7 +1110,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.698970004336019</v>
+        <v>0.2</v>
       </c>
       <c r="B11" t="n">
         <v>0.496666666666667</v>
@@ -952,6 +1122,91 @@
         <v>0.4</v>
       </c>
       <c r="E11" t="n">
+        <v>0.933333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.686666666666667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.536666666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.733333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.933333333333333</v>
       </c>
     </row>

--- a/Data/RSF_results.xlsx
+++ b/Data/RSF_results.xlsx
@@ -4097,6 +4097,1041 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>10</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.551020408163265</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.521739130434783</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.558139534883721</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.558139534883721</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.534883720930233</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.51063829787234</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.610526315789474</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.446808510638298</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.436170212765957</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.457446808510638</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.526881720430108</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.516129032258065</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.526881720430108</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -7791,6 +8826,1041 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.551020408163265</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.521739130434783</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.558139534883721</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.558139534883721</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.534883720930233</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.51063829787234</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.610526315789474</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.446808510638298</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.436170212765957</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.457446808510638</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.526881720430108</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.516129032258065</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.526881720430108</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11485,6 +13555,1041 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.551020408163265</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.521739130434783</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.558139534883721</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.558139534883721</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.534883720930233</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.51063829787234</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.610526315789474</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.638297872340426</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.446808510638298</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.436170212765957</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.457446808510638</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.526881720430108</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.516129032258065</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.526881720430108</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
